--- a/biology/Médecine/William_Worrall_Mayo/William_Worrall_Mayo.xlsx
+++ b/biology/Médecine/William_Worrall_Mayo/William_Worrall_Mayo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">William Worrall Mayo (/ˈmeɪjoʊ/ en anglais), né le 31 mai 1819 et mort le 6 mars 1911, est un médecin et chimiste d'origine britannique, fondateur de la Mayo Clinic avec ses deux fils William James Mayo et Charles Horace Mayo à la fin du XIXe siècle à Rochester dans le Minnesota aux États-Unis.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il nait en Angleterre à Eccles, dans le district métropolitain de Salford, et commence des études de médecine décousues à Manchester, Glasgow et Londres avant d'émigrer aux États-Unis en 1845 où il travaille d'abord en qualité de pharmacien au Bellevue Hospital de New York.
 Il aide dans un premier temps les religieuses de St. Francis à batir l'Hôpital de Saint Mary à Rochester dans le Minnesota en 1899. Ses fils William James (1861-1939) et Charles Horace (1865-1939), tous deux chirurgiens, ont développé la  Mayo Clinic faisant partie de l'hôpital.
